--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,32 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
-  <si>
-    <t>HOTEL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>naziv</t>
   </si>
   <si>
-    <t>grad</t>
-  </si>
-  <si>
     <t>država</t>
   </si>
   <si>
-    <t>Hotel Park</t>
-  </si>
-  <si>
-    <t>Pula</t>
-  </si>
-  <si>
     <t>Hrvatska</t>
   </si>
   <si>
-    <t>broj_zvjezdica</t>
-  </si>
-  <si>
     <t>SOBA</t>
   </si>
   <si>
@@ -66,18 +51,6 @@
     <t>Obiteljska(+ krevetić)</t>
   </si>
   <si>
-    <t>id_smjestaja</t>
-  </si>
-  <si>
-    <t>SMJEŠTAJ</t>
-  </si>
-  <si>
-    <t>id_smjestaj</t>
-  </si>
-  <si>
-    <t>vrsta_smjestaja</t>
-  </si>
-  <si>
     <t>BROJ KREVETA</t>
   </si>
   <si>
@@ -295,6 +268,96 @@
   </si>
   <si>
     <t>id_rezervacije</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Lukić</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Horvat</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Anić</t>
+  </si>
+  <si>
+    <t>091 234 4567</t>
+  </si>
+  <si>
+    <t>098 987 6541</t>
+  </si>
+  <si>
+    <t>099 546 6829</t>
+  </si>
+  <si>
+    <t>spol</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Ž</t>
+  </si>
+  <si>
+    <t>direktor</t>
+  </si>
+  <si>
+    <t>zaposlenik</t>
+  </si>
+  <si>
+    <t>praktikant</t>
+  </si>
+  <si>
+    <t>datum_prijave</t>
+  </si>
+  <si>
+    <t>datum_odjave</t>
+  </si>
+  <si>
+    <t>ZAPOSLENICI (id_zaposlenik)</t>
+  </si>
+  <si>
+    <t>REZERVACIJE(id_zaposlenik)</t>
+  </si>
+  <si>
+    <t>id_agencija</t>
+  </si>
+  <si>
+    <t>id_gosti</t>
+  </si>
+  <si>
+    <t>id_smještaj</t>
+  </si>
+  <si>
+    <t>POZICIJA</t>
+  </si>
+  <si>
+    <t>id_pozicija</t>
+  </si>
+  <si>
+    <t>plaća</t>
+  </si>
+  <si>
+    <t>VRSTA SMJEŠTAJA</t>
+  </si>
+  <si>
+    <t>soba</t>
+  </si>
+  <si>
+    <t>apartman</t>
+  </si>
+  <si>
+    <t>penthouse</t>
+  </si>
+  <si>
+    <t>tip_smještaja</t>
   </si>
 </sst>
 </file>
@@ -354,7 +417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,11 +439,6 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -391,33 +449,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD67"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +783,16 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="20" max="20" width="20.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" customWidth="1"/>
@@ -750,102 +807,103 @@
     <col min="30" max="30" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
       <c r="AB2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="4"/>
-      <c r="Y5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -863,16 +921,37 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="S7">
         <v>2</v>
       </c>
@@ -889,10 +968,31 @@
         <v>2</v>
       </c>
       <c r="Z7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="S8">
         <v>3</v>
       </c>
@@ -909,118 +1009,106 @@
         <v>3</v>
       </c>
       <c r="Z8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="Y9">
         <v>4</v>
       </c>
       <c r="Z9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y10">
         <v>5</v>
       </c>
       <c r="Z10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U14" s="1">
         <v>950</v>
@@ -1029,36 +1117,36 @@
         <v>4</v>
       </c>
       <c r="Y14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
       </c>
       <c r="S15">
         <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="U15" s="1">
         <v>1300</v>
@@ -1066,19 +1154,34 @@
       <c r="V15">
         <v>4</v>
       </c>
-      <c r="Y15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="Y15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="8">
+        <v>54182730933</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-0.1</v>
+      </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="U16" s="1">
         <v>2000</v>
@@ -1090,91 +1193,88 @@
         <v>1</v>
       </c>
       <c r="Z16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="8">
+        <v>87461053194</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-0.15</v>
+      </c>
       <c r="Y17">
         <v>2</v>
       </c>
       <c r="Z17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="8">
+        <v>23574916280</v>
+      </c>
+      <c r="H18" s="9">
+        <v>-0.05</v>
+      </c>
       <c r="Y18">
         <v>3</v>
       </c>
       <c r="Z18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y19">
         <v>4</v>
       </c>
       <c r="Z19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="S21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="9">
-        <v>54182730933</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-0.1</v>
-      </c>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="U22" s="1">
         <v>500</v>
@@ -1183,27 +1283,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>2</v>
-      </c>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="9">
-        <v>87461053194</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-0.15</v>
+        <v>80</v>
       </c>
       <c r="S23">
         <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="U23" s="1">
         <v>220</v>
@@ -1212,27 +1300,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="9">
-        <v>23574916280</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-0.05</v>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U24" s="1">
         <v>300</v>
@@ -1241,41 +1332,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA29" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" t="s">
-        <v>61</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="Y29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y30">
         <v>1</v>
       </c>
@@ -1286,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y31">
         <v>2</v>
       </c>
@@ -1297,7 +1430,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
       <c r="Y32">
         <v>3</v>
       </c>
@@ -1308,34 +1444,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="12:27" x14ac:dyDescent="0.25">
-      <c r="L33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="12:27" x14ac:dyDescent="0.25">
-      <c r="L34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M34" t="s">
-        <v>57</v>
+    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2000</v>
       </c>
       <c r="Y34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="12:27" x14ac:dyDescent="0.25">
-      <c r="Y35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="12:27" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="Y35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="1">
+        <v>950</v>
+      </c>
       <c r="Y36">
         <v>1</v>
       </c>
@@ -1346,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y37">
         <v>2</v>
       </c>
@@ -1357,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y38">
         <v>3</v>
       </c>
@@ -1368,7 +1531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y39">
         <v>4</v>
       </c>
@@ -1379,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y40">
         <v>5</v>
       </c>
@@ -1390,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y41">
         <v>6</v>
       </c>
@@ -1401,7 +1564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y42">
         <v>7</v>
       </c>
@@ -1412,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y43">
         <v>8</v>
       </c>
@@ -1423,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y44">
         <v>9</v>
       </c>
@@ -1434,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y45">
         <v>10</v>
       </c>
@@ -1445,23 +1608,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="12:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>83</v>
+      </c>
+      <c r="L47" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" t="s">
+        <v>100</v>
+      </c>
+      <c r="N47" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>105</v>
+      </c>
       <c r="Y47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="12:27" x14ac:dyDescent="0.25">
-      <c r="Y48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="Y48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA48" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y49">
         <v>1</v>
       </c>
@@ -1472,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y50">
         <v>2</v>
       </c>
@@ -1483,7 +1672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y51">
         <v>3</v>
       </c>
@@ -1494,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="25:27" x14ac:dyDescent="0.25">
       <c r="Y52">
         <v>4</v>
       </c>
@@ -1505,57 +1694,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="J63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J67">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1"/>
-    <hyperlink ref="I14" r:id="rId2"/>
-    <hyperlink ref="I15" r:id="rId3"/>
-    <hyperlink ref="E22" r:id="rId4"/>
-    <hyperlink ref="E24" r:id="rId5"/>
-    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="J7" r:id="rId1"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J9" r:id="rId3"/>
+    <hyperlink ref="F16" r:id="rId4"/>
+    <hyperlink ref="F18" r:id="rId5"/>
+    <hyperlink ref="F17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="119">
   <si>
     <t>naziv</t>
   </si>
@@ -30,9 +30,6 @@
     <t>SOBA</t>
   </si>
   <si>
-    <t>id_soba</t>
-  </si>
-  <si>
     <t>vrsta</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>APARTMAN</t>
   </si>
   <si>
-    <t>id_penthouse</t>
-  </si>
-  <si>
-    <t>id_apartman</t>
-  </si>
-  <si>
     <t>cijena_noci</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>Penthouse Pula</t>
   </si>
   <si>
-    <t>broj_sobe</t>
-  </si>
-  <si>
     <t>kuhinja</t>
   </si>
   <si>
@@ -141,24 +129,6 @@
     <t>N:M</t>
   </si>
   <si>
-    <t>DODACI SMJEŠTAJA-SOBE</t>
-  </si>
-  <si>
-    <t>DODACI SMJEŠTAJA-PENTHOUSE</t>
-  </si>
-  <si>
-    <t>DODACI SMJEŠTAJA-APARTMAN</t>
-  </si>
-  <si>
-    <t>id_dodatak_penthouse</t>
-  </si>
-  <si>
-    <t>id_dodatak_sobe</t>
-  </si>
-  <si>
-    <t>id_dodatak_apartman</t>
-  </si>
-  <si>
     <t>GOSTI</t>
   </si>
   <si>
@@ -333,9 +303,6 @@
     <t>id_gosti</t>
   </si>
   <si>
-    <t>id_smještaj</t>
-  </si>
-  <si>
     <t>POZICIJA</t>
   </si>
   <si>
@@ -348,16 +315,64 @@
     <t>VRSTA SMJEŠTAJA</t>
   </si>
   <si>
-    <t>soba</t>
-  </si>
-  <si>
-    <t>apartman</t>
-  </si>
-  <si>
-    <t>penthouse</t>
-  </si>
-  <si>
-    <t>tip_smještaja</t>
+    <t>TIP SMJEŠTAJA</t>
+  </si>
+  <si>
+    <t>id_tip</t>
+  </si>
+  <si>
+    <t>id_stip</t>
+  </si>
+  <si>
+    <t>SOBA 22</t>
+  </si>
+  <si>
+    <t>SOBA 365</t>
+  </si>
+  <si>
+    <t>SOBA 48</t>
+  </si>
+  <si>
+    <t>RELACIJE</t>
+  </si>
+  <si>
+    <t>gosti(id_gost, ime, prezime, adresa, država, telefon, email)</t>
+  </si>
+  <si>
+    <t>agencija(id_agencija, naziv, web_stranica, oib, popust)</t>
+  </si>
+  <si>
+    <t>zaposlenici(id_zaposlenik, ime, prezime, telefon, spol, id_pozicija)</t>
+  </si>
+  <si>
+    <t>pozicija(id_pozicija, naziv, plaća)</t>
+  </si>
+  <si>
+    <t>tip_smještaja(id_tip, naziv)</t>
+  </si>
+  <si>
+    <t>id_vrsta_smjestaja</t>
+  </si>
+  <si>
+    <t>vrsta_smještaja(id_vrsta_smještaja, naziv, cijena_noci, id_broj_kreveta, id_tip</t>
+  </si>
+  <si>
+    <t>broj_kreveta(id_broj_kreveta, vrsta)</t>
+  </si>
+  <si>
+    <t>dodatne_znacajke(id_dodatak, naziv)</t>
+  </si>
+  <si>
+    <t>DODACI SMJEŠTAJA</t>
+  </si>
+  <si>
+    <t>id_dodatak_smjestaja</t>
+  </si>
+  <si>
+    <t>dodaci_smjestaja(id_dodatak_smjestaja, id_vrsta_smjestaja, id_dodatak)</t>
+  </si>
+  <si>
+    <t>rezervacie(id_rezervacije, datum_prijave, datum_odjave, id_zaposlenik, id_agnecija, id_gosti, id_tip)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +431,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -456,7 +479,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -467,6 +490,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -772,15 +796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O41" activeCellId="1" sqref="K50 O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
@@ -788,11 +813,12 @@
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="20" max="20" width="20.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" customWidth="1"/>
@@ -810,124 +836,118 @@
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
       <c r="AD3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>11</v>
-      </c>
       <c r="AB4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AD4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>98</v>
       </c>
       <c r="W5" s="3"/>
-      <c r="Y5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>5</v>
+      <c r="Y5" t="s">
+        <v>10</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
+        <v>43</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="1">
-        <v>45</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>6</v>
+      <c r="Z6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -935,40 +955,49 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>101</v>
+      </c>
+      <c r="R7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45</v>
       </c>
       <c r="T7">
-        <v>365</v>
-      </c>
-      <c r="U7" s="1">
-        <v>150</v>
-      </c>
-      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
         <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -976,49 +1005,58 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
+        <v>53</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="1">
+        <v>150</v>
       </c>
       <c r="T8">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>120</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -1026,139 +1064,154 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9">
+        <v>103</v>
+      </c>
+      <c r="R9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S9">
+        <v>120</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>201</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="1">
+        <v>950</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
         <v>5</v>
       </c>
-      <c r="Z10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
-        <v>109</v>
+      <c r="Z11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" t="s">
-        <v>113</v>
-      </c>
-      <c r="S12" t="s">
-        <v>12</v>
+      <c r="Q12">
+        <v>202</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1300</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V13" s="3" t="s">
+      <c r="Q13">
+        <v>203</v>
+      </c>
+      <c r="R13" t="s">
         <v>25</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>111</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" s="1">
-        <v>950</v>
-      </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>112</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1300</v>
-      </c>
-      <c r="V15">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="Q15">
+        <v>301</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="1">
+        <v>500</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
@@ -1166,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G16" s="8">
         <v>54182730933</v>
@@ -1177,23 +1230,26 @@
       <c r="H16" s="9">
         <v>-0.1</v>
       </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="1">
-        <v>2000</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>22</v>
+      <c r="Q16">
+        <v>302</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1">
+        <v>220</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1201,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G17" s="8">
         <v>87461053194</v>
@@ -1212,11 +1268,26 @@
       <c r="H17" s="9">
         <v>-0.15</v>
       </c>
+      <c r="Q17">
+        <v>303</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="1">
+        <v>300</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
       <c r="Y17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="4:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1224,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G18" s="8">
         <v>23574916280</v>
@@ -1236,100 +1307,54 @@
         <v>-0.05</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y19">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="S20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="S21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>17</v>
-      </c>
-      <c r="U22" s="1">
-        <v>500</v>
-      </c>
-      <c r="V22">
-        <v>3</v>
+      <c r="Y20">
+        <v>14</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23" t="s">
-        <v>18</v>
-      </c>
-      <c r="U23" s="1">
-        <v>220</v>
-      </c>
-      <c r="V23">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" s="1">
-        <v>300</v>
-      </c>
-      <c r="V24">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
@@ -1337,19 +1362,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
         <v>84</v>
       </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H25" t="s">
+      <c r="P25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I25">
-        <v>1</v>
+      <c r="S25" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.25">
@@ -1357,19 +1403,34 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I26">
         <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="4:27" x14ac:dyDescent="0.25">
@@ -1377,82 +1438,112 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I27">
         <v>3</v>
       </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="Y28" t="s">
-        <v>41</v>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="Y29" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>21</v>
+      <c r="Y29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>2</v>
-      </c>
-      <c r="AA30">
-        <v>2</v>
+      <c r="Y30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Y32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="AA32">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F33" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
+      </c>
+      <c r="Y33">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <v>103</v>
+      </c>
+      <c r="AA33">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="6:27" x14ac:dyDescent="0.25">
@@ -1460,33 +1551,30 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1">
         <v>2000</v>
       </c>
-      <c r="Y34" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="35" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
       </c>
-      <c r="Y35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z35" s="4" t="s">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>201</v>
+      </c>
+      <c r="AA35">
         <v>14</v>
-      </c>
-      <c r="AA35" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="6:27" x14ac:dyDescent="0.25">
@@ -1494,204 +1582,246 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H36" s="1">
         <v>950</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="AA36">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z38">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="AA38">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="AA39">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z41">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="AA41">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z42">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z43">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="AA43">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z44">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="AA44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="Y45">
-        <v>10</v>
-      </c>
-      <c r="Z45">
-        <v>3</v>
-      </c>
-      <c r="AA45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>301</v>
+      </c>
+      <c r="AA46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>301</v>
+      </c>
+      <c r="AA47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="Y48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>302</v>
+      </c>
+      <c r="AA48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="Y49">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="K46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="K47" t="s">
-        <v>83</v>
-      </c>
-      <c r="L47" t="s">
-        <v>99</v>
-      </c>
-      <c r="M47" t="s">
-        <v>100</v>
-      </c>
-      <c r="N47" t="s">
-        <v>81</v>
-      </c>
-      <c r="O47" t="s">
-        <v>103</v>
-      </c>
-      <c r="P47" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q47" t="s">
+      <c r="Z49">
+        <v>303</v>
+      </c>
+      <c r="AA49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="Y47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="Y48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA48" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="25:27" x14ac:dyDescent="0.25">
-      <c r="Y49">
-        <v>1</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="25:27" x14ac:dyDescent="0.25">
-      <c r="Y50">
-        <v>2</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="25:27" x14ac:dyDescent="0.25">
-      <c r="Y51">
-        <v>3</v>
-      </c>
-      <c r="Z51">
-        <v>2</v>
-      </c>
-      <c r="AA51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="25:27" x14ac:dyDescent="0.25">
-      <c r="Y52">
-        <v>4</v>
-      </c>
-      <c r="Z52">
-        <v>3</v>
-      </c>
-      <c r="AA52">
-        <v>4</v>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E53" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E56" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E57" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E58" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E62" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22560" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
   <si>
     <t>naziv</t>
   </si>
@@ -195,9 +195,6 @@
     <t>antic@gmail.com</t>
   </si>
   <si>
-    <t>id_agencije</t>
-  </si>
-  <si>
     <t>web_stranica</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>www.airbnb.com</t>
   </si>
   <si>
-    <t xml:space="preserve">AGENCIJA </t>
-  </si>
-  <si>
     <t>ZAPOSLENICI</t>
   </si>
   <si>
@@ -318,12 +312,6 @@
     <t>TIP SMJEŠTAJA</t>
   </si>
   <si>
-    <t>id_tip</t>
-  </si>
-  <si>
-    <t>id_stip</t>
-  </si>
-  <si>
     <t>SOBA 22</t>
   </si>
   <si>
@@ -339,30 +327,15 @@
     <t>gosti(id_gost, ime, prezime, adresa, država, telefon, email)</t>
   </si>
   <si>
-    <t>agencija(id_agencija, naziv, web_stranica, oib, popust)</t>
-  </si>
-  <si>
     <t>zaposlenici(id_zaposlenik, ime, prezime, telefon, spol, id_pozicija)</t>
   </si>
   <si>
-    <t>pozicija(id_pozicija, naziv, plaća)</t>
-  </si>
-  <si>
     <t>tip_smještaja(id_tip, naziv)</t>
   </si>
   <si>
     <t>id_vrsta_smjestaja</t>
   </si>
   <si>
-    <t>vrsta_smještaja(id_vrsta_smještaja, naziv, cijena_noci, id_broj_kreveta, id_tip</t>
-  </si>
-  <si>
-    <t>broj_kreveta(id_broj_kreveta, vrsta)</t>
-  </si>
-  <si>
-    <t>dodatne_znacajke(id_dodatak, naziv)</t>
-  </si>
-  <si>
     <t>DODACI SMJEŠTAJA</t>
   </si>
   <si>
@@ -372,7 +345,118 @@
     <t>dodaci_smjestaja(id_dodatak_smjestaja, id_vrsta_smjestaja, id_dodatak)</t>
   </si>
   <si>
-    <t>rezervacie(id_rezervacije, datum_prijave, datum_odjave, id_zaposlenik, id_agnecija, id_gosti, id_tip)</t>
+    <t>RACUN</t>
+  </si>
+  <si>
+    <t>id_racun</t>
+  </si>
+  <si>
+    <t>broj_racuna</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>vrijeme</t>
+  </si>
+  <si>
+    <t>cijena</t>
+  </si>
+  <si>
+    <t>kartica</t>
+  </si>
+  <si>
+    <t>gotovina</t>
+  </si>
+  <si>
+    <t>broj_gostiju</t>
+  </si>
+  <si>
+    <t>rezervacije(id_rezervacije, datum_prijave, datum_odjave, broj_gostiju, id_zaposlenik, id_agnecija, id_gosti, id_tip, id_racun)</t>
+  </si>
+  <si>
+    <t>SMJENA</t>
+  </si>
+  <si>
+    <t>prijepodne</t>
+  </si>
+  <si>
+    <t>poslijepodne</t>
+  </si>
+  <si>
+    <t>međusmjena</t>
+  </si>
+  <si>
+    <t>id_smjena</t>
+  </si>
+  <si>
+    <t>DODATCI SMJEŠTAJA</t>
+  </si>
+  <si>
+    <t>DODATNE USLUGE</t>
+  </si>
+  <si>
+    <t>id_dodatne_usluge</t>
+  </si>
+  <si>
+    <t>dodatni_rucnici</t>
+  </si>
+  <si>
+    <t>dodatno_ciscenje</t>
+  </si>
+  <si>
+    <t>higijenske_potrebstine</t>
+  </si>
+  <si>
+    <t>id_tip_smjestaja</t>
+  </si>
+  <si>
+    <t>vrsta_smještaja(id_vrsta_smještaja, naziv, cijena_noci, id_broj_kreveta, id_tip_smjestaja</t>
+  </si>
+  <si>
+    <t>dodatne_usluge(id_dodatne_usluge, naziv, cijena)</t>
+  </si>
+  <si>
+    <t>kolicna</t>
+  </si>
+  <si>
+    <t>broj_kreveta(id_broj_kreveta, vrsta, kolicina)</t>
+  </si>
+  <si>
+    <t>naziv_pozicije</t>
+  </si>
+  <si>
+    <t>pozicija(id_pozicija, naziv_pozicije, plaća)</t>
+  </si>
+  <si>
+    <t>TIP REZERVACIJE</t>
+  </si>
+  <si>
+    <t>OSOBNO (U HOTELU)</t>
+  </si>
+  <si>
+    <t>tip_rezervacije(id_tip_rezervacije, naziv, web_stranica, oib, popust)</t>
+  </si>
+  <si>
+    <t>id_tip_rezervacije</t>
+  </si>
+  <si>
+    <t>pocetak_smjene</t>
+  </si>
+  <si>
+    <t>kraj_smjene</t>
+  </si>
+  <si>
+    <t>tip_smjene</t>
+  </si>
+  <si>
+    <t>smjena(id_smjena, tip_smjene, pocetak_smjene, kraj_smjene)</t>
+  </si>
+  <si>
+    <t>racun(id_racun, broj_racuna, datum, vrijeme, vrsta_placanja, id_dodatne_usluge, cijena)</t>
+  </si>
+  <si>
+    <t>vrsta_placanja</t>
   </si>
 </sst>
 </file>
@@ -479,7 +563,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -491,6 +575,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -796,50 +881,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O41" activeCellId="1" sqref="K50 O41"/>
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="16" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="16" width="13.44140625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="25" max="25" width="29.5703125" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" customWidth="1"/>
-    <col min="28" max="28" width="27.28515625" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" customWidth="1"/>
+    <col min="21" max="21" width="29.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="29.5546875" customWidth="1"/>
+    <col min="26" max="26" width="20.44140625" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" customWidth="1"/>
+    <col min="28" max="28" width="27.33203125" customWidth="1"/>
+    <col min="29" max="29" width="29.33203125" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>28</v>
@@ -848,7 +933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="AB3" t="s">
         <v>31</v>
       </c>
@@ -859,7 +944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="AB4" t="s">
         <v>33</v>
       </c>
@@ -870,15 +955,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" t="s">
@@ -894,7 +979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
@@ -917,13 +1002,13 @@
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>0</v>
@@ -935,7 +1020,7 @@
         <v>29</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="Y6" s="5" t="s">
         <v>22</v>
@@ -943,6 +1028,9 @@
       <c r="Z6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="AA6" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="AB6" t="s">
         <v>17</v>
       </c>
@@ -950,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>1</v>
       </c>
@@ -982,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S7" s="1">
         <v>45</v>
@@ -999,8 +1087,11 @@
       <c r="Z7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>2</v>
       </c>
@@ -1032,7 +1123,7 @@
         <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S8" s="1">
         <v>150</v>
@@ -1049,17 +1140,20 @@
       <c r="Z8" t="s">
         <v>6</v>
       </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
       <c r="AB8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>3</v>
       </c>
@@ -1091,7 +1185,7 @@
         <v>103</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>120</v>
@@ -1108,16 +1202,22 @@
       <c r="Z9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y10">
         <v>4</v>
       </c>
       <c r="Z10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Q11">
         <v>201</v>
       </c>
@@ -1139,8 +1239,11 @@
       <c r="Z11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="Q12">
         <v>202</v>
       </c>
@@ -1157,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="Q13">
         <v>203</v>
       </c>
@@ -1174,26 +1277,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="Q15">
         <v>301</v>
@@ -1211,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="Y15" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
@@ -1219,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="8">
         <v>54182730933</v>
@@ -1257,10 +1360,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="8">
         <v>87461053194</v>
@@ -1295,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="8">
         <v>23574916280</v>
@@ -1313,7 +1416,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="9">
+        <v>-0.2</v>
+      </c>
       <c r="Y19">
         <v>13</v>
       </c>
@@ -1321,7 +1433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y20">
         <v>14</v>
       </c>
@@ -1329,14 +1441,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:27" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>39</v>
@@ -1348,160 +1460,187 @@
         <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
-      </c>
       <c r="I27">
         <v>3</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
       <c r="Q27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.3">
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="P28">
-        <v>3</v>
-      </c>
       <c r="Q28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.3">
       <c r="Y29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.3">
       <c r="Y30" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AA30" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y31">
         <v>1</v>
       </c>
@@ -1512,9 +1651,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:27" ht="15" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y32">
         <v>2</v>
@@ -1526,15 +1665,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F33" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y33">
         <v>3</v>
@@ -1546,23 +1685,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:27" ht="15" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H34" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:27" ht="15" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H35" s="1">
         <v>1400</v>
@@ -1577,16 +1716,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="1">
         <v>950</v>
       </c>
+      <c r="M36" t="s">
+        <v>109</v>
+      </c>
       <c r="Y36">
         <v>2</v>
       </c>
@@ -1597,7 +1739,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="M37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="Y37">
         <v>3</v>
       </c>
@@ -1608,7 +1771,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1001</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
       <c r="Y38">
         <v>4</v>
       </c>
@@ -1619,7 +1794,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1001</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
       <c r="Y39">
         <v>5</v>
       </c>
@@ -1630,7 +1817,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>1002</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
       <c r="Y40">
         <v>6</v>
       </c>
@@ -1641,7 +1843,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>1003</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
       <c r="Y41">
         <v>7</v>
       </c>
@@ -1652,7 +1878,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.625</v>
+      </c>
       <c r="Y42">
         <v>8</v>
       </c>
@@ -1663,7 +1901,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="Y43">
         <v>9</v>
       </c>
@@ -1674,7 +1924,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="Y44">
         <v>10</v>
       </c>
@@ -1685,7 +1947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y46">
         <v>1</v>
       </c>
@@ -1696,7 +1958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y47">
         <v>2</v>
       </c>
@@ -1707,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y48">
         <v>3</v>
       </c>
@@ -1718,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:27" ht="15" x14ac:dyDescent="0.25">
       <c r="Y49">
         <v>4</v>
       </c>
@@ -1729,99 +1991,152 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="S51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E52" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>128</v>
+      </c>
+      <c r="U52" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E53" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-    </row>
-    <row r="54" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s">
+        <v>127</v>
+      </c>
+      <c r="U53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E54" s="10" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S54">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s">
+        <v>129</v>
+      </c>
+      <c r="U54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E55" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E56" s="10" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E57" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E58" s="10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E59" s="10" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E60" s="10" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E61" s="10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="E63" s="10" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="E64" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +2159,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1856,7 +2171,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
   <si>
     <t>naziv</t>
   </si>
@@ -291,9 +291,6 @@
     <t>REZERVACIJE(id_zaposlenik)</t>
   </si>
   <si>
-    <t>id_agencija</t>
-  </si>
-  <si>
     <t>id_gosti</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>id_smjena</t>
   </si>
   <si>
-    <t>DODATCI SMJEŠTAJA</t>
-  </si>
-  <si>
     <t>DODATNE USLUGE</t>
   </si>
   <si>
@@ -457,6 +451,9 @@
   </si>
   <si>
     <t>vrsta_placanja</t>
+  </si>
+  <si>
+    <t>DODACI SOBE</t>
   </si>
 </sst>
 </file>
@@ -883,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,10 +957,10 @@
         <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W5" s="3"/>
       <c r="Y5" t="s">
@@ -1002,13 +999,13 @@
         <v>43</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>0</v>
@@ -1020,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Y6" s="5" t="s">
         <v>22</v>
@@ -1029,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB6" t="s">
         <v>17</v>
@@ -1070,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S7" s="1">
         <v>45</v>
@@ -1123,7 +1120,7 @@
         <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S8" s="1">
         <v>150</v>
@@ -1185,7 +1182,7 @@
         <v>103</v>
       </c>
       <c r="R9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S9">
         <v>120</v>
@@ -1279,12 +1276,12 @@
     </row>
     <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>0</v>
@@ -1314,7 +1311,7 @@
         <v>3</v>
       </c>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
@@ -1421,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="9">
         <v>-0.2</v>
@@ -1463,10 +1460,10 @@
         <v>81</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M24" t="s">
         <v>70</v>
@@ -1504,22 +1501,22 @@
         <v>88</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>69</v>
       </c>
       <c r="R25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="T25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="4:27" x14ac:dyDescent="0.3">
@@ -1626,15 +1623,15 @@
     </row>
     <row r="29" spans="4:27" x14ac:dyDescent="0.3">
       <c r="Y29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="4:27" x14ac:dyDescent="0.3">
       <c r="Y30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA30" s="6" t="s">
         <v>18</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="32" spans="4:27" ht="15" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y32">
         <v>2</v>
@@ -1667,13 +1664,13 @@
     </row>
     <row r="33" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="Y33">
         <v>3</v>
@@ -1727,7 +1724,7 @@
         <v>950</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y36">
         <v>2</v>
@@ -1741,25 +1738,25 @@
     </row>
     <row r="37" spans="6:27" x14ac:dyDescent="0.3">
       <c r="M37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S37" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="Y37">
         <v>3</v>
@@ -1779,7 +1776,7 @@
         <v>1001</v>
       </c>
       <c r="Q38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -1802,7 +1799,7 @@
         <v>1001</v>
       </c>
       <c r="Q39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R39">
         <v>3</v>
@@ -1819,7 +1816,7 @@
     </row>
     <row r="40" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M40">
         <v>2</v>
@@ -1828,7 +1825,7 @@
         <v>1002</v>
       </c>
       <c r="Q40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -1845,16 +1842,16 @@
     </row>
     <row r="41" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F41" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M41">
         <v>3</v>
@@ -1863,7 +1860,7 @@
         <v>1003</v>
       </c>
       <c r="Q41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -1883,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H42" s="11">
         <v>0.29166666666666669</v>
@@ -1906,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="11">
         <v>0.58333333333333337</v>
@@ -1929,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="11">
         <v>0.41666666666666669</v>
@@ -1993,23 +1990,23 @@
     </row>
     <row r="50" spans="5:27" x14ac:dyDescent="0.3">
       <c r="S50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="5:27" x14ac:dyDescent="0.3">
       <c r="S51" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>0</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E52" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -2019,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U52" s="1">
         <v>15</v>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="53" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E53" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -2037,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U53" s="1">
         <v>5</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="54" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E54" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -2055,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="T54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U54" s="1">
         <v>5</v>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="55" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E55" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="56" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E56" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -2081,12 +2078,12 @@
     </row>
     <row r="57" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E57" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E58" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -2095,7 +2092,7 @@
     </row>
     <row r="59" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E59" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -2104,7 +2101,7 @@
     </row>
     <row r="60" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E60" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="61" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E61" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -2122,7 +2119,7 @@
     </row>
     <row r="62" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E62" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -2131,12 +2128,12 @@
     </row>
     <row r="63" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E63" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="5:27" ht="18" x14ac:dyDescent="0.35">
       <c r="E64" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22560" windowHeight="9408"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
   <si>
     <t>naziv</t>
   </si>
@@ -450,10 +450,22 @@
     <t>racun(id_racun, broj_racuna, datum, vrijeme, vrsta_placanja, id_dodatne_usluge, cijena)</t>
   </si>
   <si>
-    <t>vrsta_placanja</t>
-  </si>
-  <si>
     <t>DODACI SOBE</t>
+  </si>
+  <si>
+    <t>VRSTA PLACANJA</t>
+  </si>
+  <si>
+    <t>id_vrsta_placanja</t>
+  </si>
+  <si>
+    <t>kartice</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>vrsta_placanja(id_vrsta_placanja, naziv)</t>
   </si>
 </sst>
 </file>
@@ -878,50 +890,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD64"/>
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="16" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="29.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" customWidth="1"/>
-    <col min="25" max="25" width="29.5546875" customWidth="1"/>
-    <col min="26" max="26" width="20.44140625" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" customWidth="1"/>
-    <col min="28" max="28" width="27.33203125" customWidth="1"/>
-    <col min="29" max="29" width="29.33203125" customWidth="1"/>
-    <col min="30" max="30" width="8.5546875" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="29.5703125" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="28" max="28" width="27.28515625" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>28</v>
@@ -930,7 +942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB3" t="s">
         <v>31</v>
       </c>
@@ -941,7 +953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AB4" t="s">
         <v>33</v>
       </c>
@@ -952,7 +964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>37</v>
       </c>
@@ -976,7 +988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>2</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>3</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y10">
         <v>4</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q11">
         <v>201</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q12">
         <v>202</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Q13">
         <v>203</v>
       </c>
@@ -1274,12 +1286,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>138</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
@@ -1413,7 +1425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>4</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y20">
         <v>14</v>
       </c>
@@ -1438,12 +1450,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D24" s="6" t="s">
         <v>69</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>1</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>2</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>3</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M28">
         <v>3</v>
       </c>
@@ -1621,12 +1633,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="Y30" s="6" t="s">
         <v>106</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
       <c r="Y31">
         <v>1</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="4:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>92</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F33" s="6" t="s">
         <v>93</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="6:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>1</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="6:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>2</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>3</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
       <c r="M37" s="4" t="s">
         <v>109</v>
       </c>
@@ -1749,8 +1761,8 @@
       <c r="P37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>144</v>
+      <c r="Q37" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>124</v>
@@ -1768,7 +1780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M38">
         <v>1</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M39">
         <v>1</v>
       </c>
@@ -1814,7 +1826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
         <v>118</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
@@ -1875,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>1</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>2</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>3</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="6:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y46">
         <v>1</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="6:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y47">
         <v>2</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="6:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
       <c r="Y48">
         <v>3</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="5:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
       <c r="Y49">
         <v>4</v>
       </c>
@@ -1988,12 +2000,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="S51" s="6" t="s">
         <v>124</v>
       </c>
@@ -2012,6 +2024,9 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
+      <c r="M52" t="s">
+        <v>145</v>
+      </c>
       <c r="S52">
         <v>1</v>
       </c>
@@ -2022,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E53" s="10" t="s">
         <v>101</v>
       </c>
@@ -2030,6 +2045,12 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
+      <c r="M53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="S53">
         <v>2</v>
       </c>
@@ -2048,6 +2069,12 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>147</v>
+      </c>
       <c r="S54">
         <v>3</v>
       </c>
@@ -2066,8 +2093,14 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E56" s="10" t="s">
         <v>134</v>
       </c>
@@ -2075,13 +2108,19 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E57" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E58" s="10" t="s">
         <v>103</v>
       </c>
@@ -2090,7 +2129,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E59" s="10" t="s">
         <v>129</v>
       </c>
@@ -2099,7 +2138,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E60" s="10" t="s">
         <v>132</v>
       </c>
@@ -2108,7 +2147,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E61" s="10" t="s">
         <v>130</v>
       </c>
@@ -2117,7 +2156,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E62" s="10" t="s">
         <v>107</v>
       </c>
@@ -2126,14 +2165,19 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E63" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E64" s="10" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2168,7 +2212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>naziv</t>
   </si>
@@ -466,6 +466,24 @@
   </si>
   <si>
     <t>vrsta_placanja(id_vrsta_placanja, naziv)</t>
+  </si>
+  <si>
+    <t>RECENZIJE</t>
+  </si>
+  <si>
+    <t>id_recenzije</t>
+  </si>
+  <si>
+    <t>ocjena</t>
+  </si>
+  <si>
+    <t>dodaci_sobe(id_dodatak, naziv)</t>
+  </si>
+  <si>
+    <t>recenzije(id_recenzije, ocjena, id_gost, id_rezervacija)</t>
+  </si>
+  <si>
+    <t>id_rezervacija</t>
   </si>
 </sst>
 </file>
@@ -890,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,6 +1975,9 @@
       </c>
     </row>
     <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>145</v>
+      </c>
       <c r="Y46">
         <v>1</v>
       </c>
@@ -1968,6 +1989,12 @@
       </c>
     </row>
     <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="Y47">
         <v>2</v>
       </c>
@@ -1979,6 +2006,12 @@
       </c>
     </row>
     <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>147</v>
+      </c>
       <c r="Y48">
         <v>3</v>
       </c>
@@ -1990,6 +2023,12 @@
       </c>
     </row>
     <row r="49" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>115</v>
+      </c>
       <c r="Y49">
         <v>4</v>
       </c>
@@ -2001,6 +2040,12 @@
       </c>
     </row>
     <row r="50" spans="5:27" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>148</v>
+      </c>
       <c r="S50" t="s">
         <v>123</v>
       </c>
@@ -2016,7 +2061,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E52" s="10" t="s">
         <v>100</v>
       </c>
@@ -2024,9 +2069,6 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="M52" t="s">
-        <v>145</v>
-      </c>
       <c r="S52">
         <v>1</v>
       </c>
@@ -2045,12 +2087,6 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
-      <c r="M53" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="S53">
         <v>2</v>
       </c>
@@ -2061,7 +2097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E54" s="10" t="s">
         <v>137</v>
       </c>
@@ -2069,12 +2105,6 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54" t="s">
-        <v>147</v>
-      </c>
       <c r="S54">
         <v>3</v>
       </c>
@@ -2085,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="5:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E55" s="10" t="s">
         <v>102</v>
       </c>
@@ -2093,12 +2123,6 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
-      <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="N55" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="56" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E56" s="10" t="s">
@@ -2108,12 +2132,6 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
-      <c r="M56">
-        <v>3</v>
-      </c>
-      <c r="N56" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="57" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E57" s="10" t="s">
@@ -2137,6 +2155,9 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
+      <c r="Q59" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E60" s="10" t="s">
@@ -2146,6 +2167,18 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
+      <c r="Q60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E61" s="10" t="s">
@@ -2155,6 +2188,15 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>5</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E62" s="10" t="s">
@@ -2164,11 +2206,29 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E63" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E64" s="10" t="s">
@@ -2178,6 +2238,16 @@
     <row r="65" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E65" s="10" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
   <si>
     <t>naziv</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>id_rezervacija</t>
+  </si>
+  <si>
+    <t>komentar</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
   <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,6 +2182,9 @@
       <c r="T60" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="U60" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E61" s="10" t="s">

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -911,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y57" sqref="Y57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,50 +942,30 @@
     <col min="24" max="24" width="18.28515625" customWidth="1"/>
     <col min="25" max="25" width="29.5703125" customWidth="1"/>
     <col min="26" max="26" width="20.42578125" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" customWidth="1"/>
+    <col min="27" max="27" width="36.5703125" customWidth="1"/>
     <col min="28" max="28" width="27.28515625" customWidth="1"/>
     <col min="29" max="29" width="29.28515625" customWidth="1"/>
     <col min="30" max="30" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" t="s">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AB3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AB4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>37</v>
       </c>
@@ -999,17 +979,17 @@
       <c r="Y5" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" t="s">
-        <v>34</v>
-      </c>
       <c r="AC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1061,14 +1041,17 @@
       <c r="AA6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AB6" t="s">
-        <v>17</v>
+      <c r="AC6" t="s">
+        <v>33</v>
       </c>
       <c r="AD6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>1</v>
       </c>
@@ -1120,8 +1103,17 @@
       <c r="AA7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>2</v>
       </c>
@@ -1173,17 +1165,14 @@
       <c r="AA8">
         <v>2</v>
       </c>
-      <c r="AB8" t="s">
-        <v>89</v>
-      </c>
       <c r="AC8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>3</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Y10">
         <v>4</v>
       </c>
@@ -1246,8 +1235,17 @@
       <c r="AA10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q11">
         <v>201</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q12">
         <v>202</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q13">
         <v>203</v>
       </c>
@@ -1307,12 +1305,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>138</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>1</v>
       </c>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
   <si>
     <t>naziv</t>
   </si>
@@ -480,13 +480,16 @@
     <t>dodaci_sobe(id_dodatak, naziv)</t>
   </si>
   <si>
-    <t>recenzije(id_recenzije, ocjena, id_gost, id_rezervacija)</t>
-  </si>
-  <si>
     <t>id_rezervacija</t>
   </si>
   <si>
     <t>komentar</t>
+  </si>
+  <si>
+    <t>datum_recenzije</t>
+  </si>
+  <si>
+    <t>recenzije(id_recenzije, datum_recenzije, ocjena, id_gost, id_rezervacija, komentar)</t>
   </si>
 </sst>
 </file>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>3</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
       <c r="M38">
         <v>1</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>1</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>118</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>1</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="6:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>2</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="5:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:27" x14ac:dyDescent="0.25">
       <c r="M50">
         <v>3</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="5:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:27" x14ac:dyDescent="0.25">
       <c r="S51" s="6" t="s">
         <v>124</v>
       </c>
@@ -2172,16 +2175,19 @@
         <v>151</v>
       </c>
       <c r="R60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="S60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="U60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V60" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="61" spans="5:27" ht="18.75" x14ac:dyDescent="0.3">
@@ -2195,10 +2201,10 @@
       <c r="Q61">
         <v>1</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>5</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>1</v>
       </c>
     </row>
@@ -2213,10 +2219,10 @@
       <c r="Q62">
         <v>2</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>4</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>2</v>
       </c>
     </row>
@@ -2227,10 +2233,10 @@
       <c r="Q63">
         <v>3</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>4</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>3</v>
       </c>
     </row>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="67" spans="5:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E67" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="244">
   <si>
     <t>naziv</t>
   </si>
@@ -450,9 +450,6 @@
     <t>id_usluge</t>
   </si>
   <si>
-    <t>PLACANJE</t>
-  </si>
-  <si>
     <t>id_placanje</t>
   </si>
   <si>
@@ -477,12 +474,6 @@
     <t>datum_nabave</t>
   </si>
   <si>
-    <t>DOGAĐAJ</t>
-  </si>
-  <si>
-    <t>id_dogadaj</t>
-  </si>
-  <si>
     <t>id_recenzija</t>
   </si>
   <si>
@@ -748,6 +739,15 @@
   </si>
   <si>
     <t>Vrlo dobro, mali nedostaci</t>
+  </si>
+  <si>
+    <t>Hrana</t>
+  </si>
+  <si>
+    <t>Higijena</t>
+  </si>
+  <si>
+    <t>VRSTA_PLACANJA</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H7" s="12">
         <v>31213</v>
@@ -1288,13 +1288,13 @@
         <v>91123456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O7" s="12">
         <v>45448</v>
       </c>
       <c r="Q7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         <v>58</v>
       </c>
       <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" t="s">
         <v>168</v>
-      </c>
-      <c r="G8" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="12">
         <v>32954</v>
@@ -1317,13 +1317,13 @@
         <v>912265626</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O8" s="12">
         <v>45488</v>
       </c>
       <c r="Q8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" t="s">
         <v>167</v>
-      </c>
-      <c r="F9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" t="s">
-        <v>170</v>
       </c>
       <c r="H9" s="12">
         <v>28621</v>
@@ -1349,13 +1349,13 @@
         <v>9125565</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O9" s="12">
         <v>45507</v>
       </c>
       <c r="Q9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R9">
         <v>3</v>
@@ -1437,13 +1437,13 @@
         <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P12" s="12">
         <v>45444</v>
       </c>
       <c r="Q12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R12">
         <v>101</v>
@@ -1487,16 +1487,16 @@
         <v>116</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P13" s="12">
         <v>45485</v>
       </c>
       <c r="Q13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R13">
         <v>102</v>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H14">
         <v>9123456779</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J14" s="12">
         <v>43845</v>
@@ -1534,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P14" s="12">
         <v>45507</v>
       </c>
       <c r="Q14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="R14">
         <v>103</v>
@@ -1569,16 +1569,16 @@
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H15">
         <v>9112454585</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J15" s="12">
         <v>43240</v>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H16">
         <v>9826221626</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J16" s="12">
         <v>43676</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="17" spans="4:42" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
+        <v>214</v>
+      </c>
+      <c r="P17" t="s">
         <v>217</v>
-      </c>
-      <c r="P17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="4:42" x14ac:dyDescent="0.25">
@@ -1644,10 +1644,10 @@
         <v>117</v>
       </c>
       <c r="O18" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" t="s">
         <v>218</v>
-      </c>
-      <c r="P18" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="4:42" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>122</v>
       </c>
       <c r="O19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P19" t="s">
         <v>219</v>
-      </c>
-      <c r="P19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="4:42" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H20">
         <v>350</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H21">
         <v>450</v>
@@ -1730,19 +1730,19 @@
         <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H22">
         <v>650</v>
       </c>
       <c r="O22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s">
         <v>223</v>
-      </c>
-      <c r="P22" t="s">
-        <v>226</v>
       </c>
       <c r="Q22">
         <v>300</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="23" spans="4:42" x14ac:dyDescent="0.25">
       <c r="O23" t="s">
+        <v>221</v>
+      </c>
+      <c r="P23" t="s">
         <v>224</v>
-      </c>
-      <c r="P23" t="s">
-        <v>227</v>
       </c>
       <c r="Q23">
         <v>100</v>
@@ -1776,10 +1776,10 @@
         <v>123</v>
       </c>
       <c r="O24" t="s">
+        <v>222</v>
+      </c>
+      <c r="P24" t="s">
         <v>225</v>
-      </c>
-      <c r="P24" t="s">
-        <v>228</v>
       </c>
       <c r="Q24">
         <v>150</v>
@@ -1814,7 +1814,7 @@
         <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="AO25">
         <v>14</v>
@@ -1840,10 +1840,10 @@
         <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>87</v>
@@ -1855,7 +1855,7 @@
         <v>135</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="4:42" x14ac:dyDescent="0.25">
@@ -1875,13 +1875,13 @@
         <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O27" s="12">
         <v>45444</v>
       </c>
       <c r="Q27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -1904,13 +1904,13 @@
         <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O28" s="12">
         <v>45483</v>
       </c>
       <c r="Q28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -1921,7 +1921,7 @@
         <v>45505</v>
       </c>
       <c r="Q29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="R29">
         <v>3</v>
@@ -1949,30 +1949,30 @@
         <v>130</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="4:42" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
         <v>196</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>199</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="N32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>39</v>
@@ -1983,54 +1983,54 @@
     </row>
     <row r="33" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" t="s">
         <v>197</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>200</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>206</v>
-      </c>
       <c r="O33" t="s">
+        <v>229</v>
+      </c>
+      <c r="P33" t="s">
         <v>232</v>
-      </c>
-      <c r="P33" t="s">
-        <v>235</v>
       </c>
       <c r="Q33">
         <v>981234567</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
         <v>198</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>201</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>207</v>
-      </c>
       <c r="O34" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" t="s">
         <v>233</v>
-      </c>
-      <c r="P34" t="s">
-        <v>236</v>
       </c>
       <c r="Q34">
         <v>981345567</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AO34" t="s">
         <v>83</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="35" spans="4:43" x14ac:dyDescent="0.25">
       <c r="O35" t="s">
+        <v>231</v>
+      </c>
+      <c r="P35" t="s">
         <v>234</v>
-      </c>
-      <c r="P35" t="s">
-        <v>237</v>
       </c>
       <c r="Q35">
         <v>922252587</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AO35" s="6" t="s">
         <v>84</v>
@@ -2101,7 +2101,7 @@
         <v>133</v>
       </c>
       <c r="N38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO38">
         <v>3</v>
@@ -2124,22 +2124,25 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2" t="s">
+      <c r="R39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>147</v>
+      <c r="S39" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="4:43" x14ac:dyDescent="0.25">
@@ -2153,18 +2156,21 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O40" t="s">
-        <v>229</v>
-      </c>
-      <c r="P40">
+        <v>241</v>
+      </c>
+      <c r="P40" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q40">
         <v>100</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="R40" s="12">
         <v>45413</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>1</v>
       </c>
       <c r="AO40">
@@ -2188,18 +2194,21 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O41" t="s">
-        <v>230</v>
-      </c>
-      <c r="P41">
+        <v>242</v>
+      </c>
+      <c r="P41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41">
         <v>50</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="R41" s="12">
         <v>45422</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2</v>
       </c>
       <c r="AO41">
@@ -2213,19 +2222,19 @@
       </c>
     </row>
     <row r="42" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>153</v>
-      </c>
       <c r="O42" t="s">
-        <v>231</v>
-      </c>
-      <c r="P42">
+        <v>242</v>
+      </c>
+      <c r="P42" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q42">
         <v>200</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="R42" s="12">
         <v>45427</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3</v>
       </c>
       <c r="AO42">
@@ -2239,21 +2248,6 @@
       </c>
     </row>
     <row r="43" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="AO43">
         <v>4</v>
       </c>
@@ -2276,8 +2270,11 @@
       </c>
     </row>
     <row r="45" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
       <c r="N45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AO45">
         <v>6</v>
@@ -2290,6 +2287,21 @@
       </c>
     </row>
     <row r="46" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="N46" s="4" t="s">
         <v>94</v>
       </c>
@@ -2297,13 +2309,13 @@
         <v>87</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AO46">
         <v>7</v>
@@ -2316,6 +2328,12 @@
       </c>
     </row>
     <row r="47" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
       <c r="AO47">
         <v>8</v>
       </c>
@@ -2327,8 +2345,11 @@
       </c>
     </row>
     <row r="48" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>156</v>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>240</v>
       </c>
       <c r="AO48">
         <v>9</v>
@@ -2341,20 +2362,11 @@
       </c>
     </row>
     <row r="49" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>35</v>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
       </c>
       <c r="AO49">
         <v>10</v>
@@ -2366,23 +2378,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <v>5</v>
-      </c>
-      <c r="G50" t="s">
-        <v>241</v>
-      </c>
-    </row>
     <row r="51" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>243</v>
-      </c>
       <c r="N51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AO51">
         <v>1</v>
@@ -2395,14 +2393,8 @@
       </c>
     </row>
     <row r="52" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>242</v>
-      </c>
       <c r="N52" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>0</v>
@@ -2428,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
+        <v>171</v>
+      </c>
+      <c r="P53" t="s">
         <v>174</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>177</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>180</v>
       </c>
       <c r="AO53">
         <v>3</v>
@@ -2448,19 +2440,19 @@
     </row>
     <row r="54" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
       <c r="O54" t="s">
+        <v>172</v>
+      </c>
+      <c r="P54" t="s">
         <v>175</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>178</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>181</v>
       </c>
       <c r="AO54">
         <v>4</v>
@@ -2474,7 +2466,7 @@
     </row>
     <row r="55" spans="4:43" x14ac:dyDescent="0.25">
       <c r="D55" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>87</v>
@@ -2486,19 +2478,19 @@
         <v>138</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N55">
         <v>3</v>
       </c>
       <c r="O55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" t="s">
         <v>176</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>179</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="4:43" x14ac:dyDescent="0.25">
@@ -3131,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22560" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="268">
   <si>
     <t>naziv</t>
   </si>
@@ -748,6 +748,215 @@
   </si>
   <si>
     <t>VRSTA_PLACANJA</t>
+  </si>
+  <si>
+    <t>radnik(id_radnik, ime, prezime, odjel, telefon, email, datum_zaposlenja, id_radno_mjesto)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radnik_skladiste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_radnik, id_skladiste, datum_provjere, napomena)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skladiste_dobavljac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id_skladiste, id_dobavljac, datum_dostave, napomena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>skladiste(id_skladiste, odjel, naziv, kolicina, datum_nabave)</t>
+  </si>
+  <si>
+    <t>dobavljac(id_dobavljac, naziv, kontakt_osoba, telefon, email)</t>
+  </si>
+  <si>
+    <t>radno_mjesto(id_radno_mjesto, naziv, opis, odjel)</t>
+  </si>
+  <si>
+    <t>smjena_radnika(datum, vrijeme_pocetka, vrijeme_zavrsetka)</t>
+  </si>
+  <si>
+    <t>id_raspored_ciscenja</t>
+  </si>
+  <si>
+    <t>raspored_ciscenja(datum, status)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radnik_smjena_radnika</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_radnik, id_smjena, vrijeme_pocetka, vrijeme_zavrsetka, pozicija)</t>
+    </r>
+  </si>
+  <si>
+    <t>soba(id_soba, broj_sobe, tip, opis, cijena_nocenja, id_raspored_ciscenja)</t>
+  </si>
+  <si>
+    <t>zahtjev_odrzavanja(id_zahtjev, opis, datum_zahtjeva, status, id_soba, id_gost)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soba_sadrzaj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_soba, id_sadrzaj, kolicina)</t>
+    </r>
+  </si>
+  <si>
+    <t>sadrzaj(id_sadrzaj, naziv, opis)</t>
+  </si>
+  <si>
+    <t>rezervacija(id_rezervacija, datum_prijave, datum_odjave, broj_gostiju, id_gost, id_radnik_id_racun)</t>
+  </si>
+  <si>
+    <t>recenzija(id_recenzija, datum, ocjena, komentar, id_gost, id_rezervacija</t>
+  </si>
+  <si>
+    <t>gost(id_gost, ime, prezime, datum_rodenja, adresa, telefon, email)</t>
+  </si>
+  <si>
+    <t>racun(id_racun, datum, iznos, nacin_placanja)</t>
+  </si>
+  <si>
+    <t>usluge(id_usluga, naziv, opis, cijena)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>racun_usluge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_racun, id_usluga, kolicina)</t>
+    </r>
+  </si>
+  <si>
+    <t>vrsta_placanja(id_placanje, nacin_placanja, id_racun)</t>
+  </si>
+  <si>
+    <t>restoran(id_restoran, ime, tip, lokacija, radno_vrijeme)</t>
+  </si>
+  <si>
+    <t>recun_restoran(id_ racun_restoran, datum, cijena, id_restoran)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gost_restoran</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_gost, id_restoran, status)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -757,7 +966,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,6 +1023,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -854,7 +1083,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -869,6 +1098,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1176,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,9 +1498,6 @@
       <c r="Q6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -1296,9 +1524,6 @@
       <c r="Q7" t="s">
         <v>206</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
@@ -1325,9 +1550,6 @@
       <c r="Q8" t="s">
         <v>207</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
       <c r="AN8" t="s">
         <v>28</v>
       </c>
@@ -1356,9 +1578,6 @@
       </c>
       <c r="Q9" t="s">
         <v>206</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
       </c>
       <c r="AJ9" t="s">
         <v>8</v>
@@ -1411,7 +1630,10 @@
         <v>120</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -1489,6 +1711,9 @@
       <c r="K13" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="L13" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="O13" t="s">
         <v>212</v>
       </c>
@@ -1666,6 +1891,12 @@
       <c r="H19" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="I19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="O19" t="s">
         <v>216</v>
       </c>
@@ -1805,10 +2036,10 @@
         <v>89</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>86</v>
@@ -1836,9 +2067,6 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>102</v>
-      </c>
       <c r="J26" t="s">
         <v>205</v>
       </c>
@@ -1871,9 +2099,6 @@
       <c r="H27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>103</v>
-      </c>
       <c r="J27" t="s">
         <v>205</v>
       </c>
@@ -1900,9 +2125,6 @@
       <c r="H28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>101</v>
-      </c>
       <c r="J28" t="s">
         <v>205</v>
       </c>
@@ -2141,9 +2363,6 @@
       <c r="R39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="S39" s="3" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="40" spans="4:43" x14ac:dyDescent="0.25">
       <c r="E40" s="12">
@@ -2170,9 +2389,6 @@
       <c r="R40" s="12">
         <v>45413</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
       <c r="AO40">
         <v>1</v>
       </c>
@@ -2208,9 +2424,6 @@
       <c r="R41" s="12">
         <v>45422</v>
       </c>
-      <c r="S41">
-        <v>2</v>
-      </c>
       <c r="AO41">
         <v>2</v>
       </c>
@@ -2234,9 +2447,6 @@
       <c r="R42" s="12">
         <v>45427</v>
       </c>
-      <c r="S42">
-        <v>3</v>
-      </c>
       <c r="AO42">
         <v>3</v>
       </c>
@@ -2299,8 +2509,11 @@
       <c r="G46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>94</v>
@@ -2313,9 +2526,6 @@
       </c>
       <c r="Q46" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="AO46">
         <v>7</v>
@@ -2393,6 +2603,9 @@
       </c>
     </row>
     <row r="52" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
       <c r="N52" s="4" t="s">
         <v>161</v>
       </c>
@@ -2416,6 +2629,15 @@
       </c>
     </row>
     <row r="53" spans="4:43" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="N53">
         <v>1</v>
       </c>
@@ -2439,9 +2661,6 @@
       </c>
     </row>
     <row r="54" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>154</v>
-      </c>
       <c r="N54">
         <v>2</v>
       </c>
@@ -2465,21 +2684,6 @@
       </c>
     </row>
     <row r="55" spans="4:43" x14ac:dyDescent="0.25">
-      <c r="D55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="N55">
         <v>3</v>
       </c>
@@ -2493,12 +2697,28 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="4:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D62" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D63" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D64" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="AG64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D65" s="10" t="s">
+        <v>248</v>
+      </c>
       <c r="AG65" s="6" t="s">
         <v>100</v>
       </c>
@@ -2515,7 +2735,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="33:52" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D66" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="AG66">
         <v>1</v>
       </c>
@@ -2532,7 +2755,11 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="67" spans="33:52" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D67" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J67" s="10"/>
       <c r="AG67">
         <v>2</v>
       </c>
@@ -2549,7 +2776,10 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="68" spans="33:52" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D68" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="AG68">
         <v>3</v>
       </c>
@@ -2572,7 +2802,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D69" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="AG69">
         <v>4</v>
       </c>
@@ -2604,7 +2837,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D70" s="14" t="s">
+        <v>252</v>
+      </c>
       <c r="AR70">
         <v>1</v>
       </c>
@@ -2627,7 +2863,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D71" s="14" t="s">
+        <v>254</v>
+      </c>
       <c r="AR71">
         <v>2</v>
       </c>
@@ -2650,7 +2889,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D72" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="AR72">
         <v>3</v>
       </c>
@@ -2673,12 +2915,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D73" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="AG73" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D74" s="14" t="s">
+        <v>256</v>
+      </c>
       <c r="AG74" s="6" t="s">
         <v>51</v>
       </c>
@@ -2719,7 +2967,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D75" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AG75">
         <v>1</v>
       </c>
@@ -2760,7 +3011,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D76" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="AG76">
         <v>2</v>
       </c>
@@ -2801,7 +3055,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D77" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="AG77">
         <v>3</v>
       </c>
@@ -2824,7 +3081,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D78" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="AV78">
         <v>301</v>
       </c>
@@ -2841,7 +3101,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D79" s="14" t="s">
+        <v>262</v>
+      </c>
       <c r="AV79">
         <v>302</v>
       </c>
@@ -2858,7 +3121,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="33:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D80" s="15" t="s">
+        <v>263</v>
+      </c>
       <c r="AV80">
         <v>303</v>
       </c>
@@ -2875,12 +3141,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D81" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D82" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="AI82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D83" s="14" t="s">
+        <v>266</v>
+      </c>
       <c r="AI83" s="6" t="s">
         <v>75</v>
       </c>
@@ -2891,7 +3168,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D84" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="AI84">
         <v>1</v>
       </c>
@@ -2902,7 +3182,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI85">
         <v>2</v>
       </c>
@@ -2913,7 +3193,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="86" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI86">
         <v>3</v>
       </c>
@@ -2924,12 +3204,12 @@
         <v>950</v>
       </c>
     </row>
-    <row r="87" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AR87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AR88" s="4" t="s">
         <v>53</v>
       </c>
@@ -2958,7 +3238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AR89">
         <v>1</v>
       </c>
@@ -2978,7 +3258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI90" t="s">
         <v>90</v>
       </c>
@@ -3001,7 +3281,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI91" s="6" t="s">
         <v>94</v>
       </c>
@@ -3033,7 +3313,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="92" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI92">
         <v>1</v>
       </c>
@@ -3047,7 +3327,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="93" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI93">
         <v>2</v>
       </c>
@@ -3061,7 +3341,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="94" spans="34:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:52" x14ac:dyDescent="0.25">
       <c r="AI94">
         <v>3</v>
       </c>
@@ -3075,12 +3355,12 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="95" spans="34:52" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="AH95" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="34:52" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="AH96" s="10" t="s">
         <v>106</v>
       </c>
@@ -3123,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -748,9 +748,6 @@
   </si>
   <si>
     <t>VRSTA_PLACANJA</t>
-  </si>
-  <si>
-    <t>radnik(id_radnik, ime, prezime, odjel, telefon, email, datum_zaposlenja, id_radno_mjesto)</t>
   </si>
   <si>
     <r>
@@ -957,6 +954,9 @@
       </rPr>
       <t>(id_gost, id_restoran, status)</t>
     </r>
+  </si>
+  <si>
+    <t>radnik(id_radnik, ime, prezime, odjel, telefon, email, datum_zaposlenja, id_radno_mjesto, id_raspored_ciscenja)</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,7 +1712,7 @@
         <v>161</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O13" t="s">
         <v>212</v>
@@ -1892,7 +1892,7 @@
         <v>122</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>109</v>
@@ -2699,17 +2699,17 @@
     </row>
     <row r="62" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D62" s="14" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D63" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="4:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D64" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG64" t="s">
         <v>98</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="65" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D65" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG65" s="6" t="s">
         <v>100</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="66" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D66" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG66">
         <v>1</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="67" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D67" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J67" s="10"/>
       <c r="AG67">
@@ -2778,7 +2778,7 @@
     </row>
     <row r="68" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D68" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG68">
         <v>3</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="69" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D69" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG69">
         <v>4</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="70" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D70" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AR70">
         <v>1</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="71" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D71" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR71">
         <v>2</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="72" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D72" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AR72">
         <v>3</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="73" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D73" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG73" t="s">
         <v>50</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="74" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D74" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG74" s="6" t="s">
         <v>51</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="75" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D75" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG75">
         <v>1</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="76" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D76" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG76">
         <v>2</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="77" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D77" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG77">
         <v>3</v>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="78" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D78" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AV78">
         <v>301</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="79" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D79" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AV79">
         <v>302</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="80" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D80" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AV80">
         <v>303</v>
@@ -3143,12 +3143,12 @@
     </row>
     <row r="81" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D81" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D82" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AI82" t="s">
         <v>74</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="83" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D83" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AI83" s="6" t="s">
         <v>75</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="84" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D84" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI84">
         <v>1</v>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="269">
   <si>
     <t>naziv</t>
   </si>
@@ -957,6 +957,28 @@
   </si>
   <si>
     <t>radnik(id_radnik, ime, prezime, odjel, telefon, email, datum_zaposlenja, id_radno_mjesto, id_raspored_ciscenja)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>racun_vrsta_placanja</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id_racun, id_vrsta_placanja)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1407,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3204,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="85" spans="4:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:52" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D85" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="AI85">
         <v>2</v>
       </c>

--- a/ModeliBazaPodatakaProjekt.xlsx
+++ b/ModeliBazaPodatakaProjekt.xlsx
@@ -1429,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
